--- a/data/output/indeks_branz.xlsx
+++ b/data/output/indeks_branz.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,16 +524,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Działalność związana z oprogramowaniem i doradztwem w zakresie informatyki oraz działalność powiązana</t>
+          <t>Działalność prawnicza i rachunkowo-księgowa</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8843858526175848</v>
+        <v>0.9362491953616454</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -541,37 +541,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7583019901186923</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9621121066394255</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9693821973673593</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9028352978655623</v>
+        <v>0.7042093287827076</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2431945018642116</v>
+        <v>0.1450077608292372</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06863108864142797</v>
+        <v>0.5868451039606744</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1716491656079217</v>
+        <v>0.1170340941167514</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.03061780263264068</v>
       </c>
       <c r="O2" t="n">
-        <v>0.009716470213443773</v>
+        <v>0.02957906712172924</v>
       </c>
       <c r="P2" t="n">
-        <v>6278</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3">
@@ -580,16 +580,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Produkcja komputerów, wyrobów elektronicznych i optycznych</t>
+          <t>Pozostałe górnictwo</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8323343282386255</v>
+        <v>0.9062431091893145</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -597,37 +597,37 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.7408734377592753</v>
+        <v>0.8148632333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>0.767848851011122</v>
+        <v>0.8849869694384209</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9502436045057541</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9028352978655623</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1931945018642117</v>
+        <v>0.1094052723484628</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.003968783529597565</v>
+        <v>0.2776777277976532</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1416491656079217</v>
+        <v>0.1239545489801882</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.04975639549424593</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009716470213443773</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="P3" t="n">
-        <v>6278</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
@@ -636,16 +636,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Produkcja chemikaliów i wyrobów chemicznych</t>
+          <t>Nieznany dział</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8198358809065496</v>
+        <v>0.8990424538364203</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -656,34 +656,34 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5627997500871161</v>
+        <v>0.8341206912917514</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.8568634777671557</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9202198184966093</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8375278751194648</v>
+        <v>0.9055330634278003</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1431945018642115</v>
+        <v>0.1418810901867126</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.08627591646675513</v>
+        <v>0.1669464417891509</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1116491656079217</v>
+        <v>0.08568634777671556</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.07978018150339072</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01624721248805352</v>
+        <v>0.009446693657219974</v>
       </c>
       <c r="P4" t="n">
-        <v>6278</v>
+        <v>741</v>
       </c>
     </row>
     <row r="5">
@@ -692,16 +692,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Działalność usługowa w zakresie pośrednictwa finansowego</t>
+          <t>Działalność usługowa w zakresie informacji</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7993874999339073</v>
+        <v>0.8507097094969378</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -712,34 +712,34 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4287602879996696</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.9985871074406469</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.8399485867253901</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9028352978655623</v>
+        <v>0.375</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07319450186421145</v>
+        <v>0.2115845905582378</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.06377955129323007</v>
+        <v>1.301683991275471</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1916491656079217</v>
+        <v>0.09985871074406469</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.1600514132746099</v>
       </c>
       <c r="O5" t="n">
-        <v>0.009716470213443773</v>
+        <v>0.0625</v>
       </c>
       <c r="P5" t="n">
-        <v>6278</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
@@ -748,16 +748,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Telekomunikacja</t>
+          <t>Produkcja chemikaliów i wyrobów chemicznych</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7584625711106383</v>
+        <v>0.8232362288179966</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -765,37 +765,37 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.811634025786502</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4679992902742698</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.3269133323681583</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9517171753731375</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8375278751194648</v>
+        <v>0.8254799301919721</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1131945018642115</v>
+        <v>-0.003330345559662663</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.1102540955616483</v>
+        <v>3.501311475409836</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1116491656079217</v>
+        <v>0.03269133323681583</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.04828282462686252</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01624721248805352</v>
+        <v>0.01745200698080279</v>
       </c>
       <c r="P6" t="n">
-        <v>6278</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7">
@@ -804,54 +804,54 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Obrót nieruchomościami</t>
+          <t>Opieka zdrowotna</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7299938549176</v>
+        <v>0.8197537361483401</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dobra kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.6291018077923359</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4479042617005716</v>
+        <v>0.8608809258723904</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.4752238392732236</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9266978362163025</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9028352978655623</v>
+        <v>0.8524203069657615</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09319450186421147</v>
+        <v>0.1799190286749177</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08744479812019752</v>
+        <v>0.1149547759353159</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1416491656079217</v>
+        <v>0.04752238392732237</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.0733021637836975</v>
       </c>
       <c r="O7" t="n">
-        <v>0.009716470213443773</v>
+        <v>0.01475796930342385</v>
       </c>
       <c r="P7" t="n">
-        <v>6278</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="8">
@@ -860,54 +860,54 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Zakwaterowanie</t>
+          <t>Nieznany dział</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.6896231421778005</v>
+        <v>0.8142897607973636</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dobra kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.544637031010813</v>
+        <v>0.9769931666666666</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5201946189948403</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9164916560792168</v>
+        <v>0.2443362770779035</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.8001591469896642</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7785919082510353</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1431945018642116</v>
+        <v>0.08551594125546395</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1246205344498035</v>
+        <v>2.178095075239398</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09164916560792168</v>
+        <v>0.02443362770779035</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.1998408530103358</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02214080917489646</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>6278</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9">
@@ -916,54 +916,54 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Opieka zdrowotna</t>
+          <t>Produkcja podstawowych produktów farmaceutycznych i preparatów farmaceutycznych</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6633207605244239</v>
+        <v>0.8137015293113745</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dobra kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8618313057131551</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3683784461142036</v>
+        <v>0.458662268873219</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7164916560792167</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9598652154519256</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7196559413826059</v>
+        <v>0.7752808988764045</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1131945018642116</v>
+        <v>0.002130764547770225</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.1999128553057081</v>
+        <v>0.1085345128903566</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07164916560792167</v>
+        <v>0.1344736117797094</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.04013478454807444</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02803440586173941</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="P9" t="n">
-        <v>6278</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -972,54 +972,54 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Produkcja żywności</t>
+          <t>Działalność wspomagająca usługi finansowe oraz ubezpieczenia i fundusze emerytalne</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.610751908905429</v>
+        <v>0.8103451654320752</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dobra kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.675750156806299</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3069679587637089</v>
+        <v>0.8960765654988528</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7164916560792167</v>
+        <v>0.5463214128665803</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9240013534833826</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7196559413826059</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09319450186421145</v>
+        <v>0.1198532566476747</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.2142874707633739</v>
+        <v>0.2667623956536183</v>
       </c>
       <c r="M10" t="n">
-        <v>0.07164916560792167</v>
+        <v>0.05463214128665803</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.07599864651661734</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02803440586173941</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="P10" t="n">
-        <v>6278</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11">
@@ -1028,54 +1028,54 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Produkcja pojazdów samochodowych, przyczep i naczep</t>
+          <t>Działalność wydawnicza</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5756731035492301</v>
+        <v>0.807529499480647</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Średnia kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.8888243</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2186131686138343</v>
+        <v>0.6827495534834144</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4164916560792168</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.973558485659492</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6304555590952533</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1131945018642115</v>
+        <v>0.1015053978155171</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.3347016050560402</v>
+        <v>0.1114638025040388</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04164916560792168</v>
+        <v>0.1267017770779035</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.026441514340508</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03695444409047467</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P11" t="n">
-        <v>6278</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12">
@@ -1084,54 +1084,54 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Budownictwo</t>
+          <t>Badania naukowe i prace rozwojowe</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5720109735367547</v>
+        <v>0.805733677743704</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Średnia kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3069018897235375</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3164916560792168</v>
+        <v>0.3059693068409141</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9721457843838165</v>
       </c>
       <c r="J12" t="n">
-        <v>0.601784007645747</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1731945018642115</v>
+        <v>0.118154888519928</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.3779262255306445</v>
+        <v>0.6082093181597122</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03164916560792168</v>
+        <v>0.03059693068409141</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.02785421561618356</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0398215992354253</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P12" t="n">
-        <v>6278</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13">
@@ -1140,54 +1140,54 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Produkcja wyrobów metalowych</t>
+          <t>Nieznany dział</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5331690050001444</v>
+        <v>0.8052822998435878</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Średnia kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.7287557826737262</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1613806159433721</v>
+        <v>0.3856163041842621</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5164916560792168</v>
+        <v>0.8219103392862828</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9633077062684373</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6607199745141765</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07319450186421145</v>
+        <v>-0.02534338071031807</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.3044212561438979</v>
+        <v>0.09774143518647196</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05164916560792168</v>
+        <v>0.08219103392862828</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.03669229373156272</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03392800254858235</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>6278</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="14">
@@ -1196,54 +1196,54 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Transport lądowy oraz transport rurociągowy</t>
+          <t>Produkcja mebli</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5054728653100834</v>
+        <v>0.7976444302011881</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Średnia kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.7223985058202623</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1598934110010375</v>
+        <v>0.8082591914214662</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4164916560792168</v>
+        <v>0.4996966174771628</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9290410389661636</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6304555590952533</v>
+        <v>0.7814207650273224</v>
       </c>
       <c r="K14" t="n">
-        <v>0.09319450186421158</v>
+        <v>0.1449139784919182</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.3466545637497782</v>
+        <v>0.1376053152954832</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04164916560792168</v>
+        <v>0.04996966174771628</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.07095896103383641</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03695444409047467</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="P14" t="n">
-        <v>6278</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
@@ -1261,45 +1261,45 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.4895256561461098</v>
+        <v>0.7854569412245687</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Średnia kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9452095810100009</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02079295535295756</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3164916560792168</v>
+        <v>0.2976459839424445</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9803830103270028</v>
       </c>
       <c r="J15" t="n">
-        <v>0.601784007645747</v>
+        <v>0.6443514644351465</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07319450186421156</v>
+        <v>1.079660056528038</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.4309501506752711</v>
+        <v>0.7661365522652582</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03164916560792168</v>
+        <v>0.02976459839424445</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.0196169896729972</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0398215992354253</v>
+        <v>0.03556485355648536</v>
       </c>
       <c r="P15" t="n">
-        <v>6278</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="16">
@@ -1308,54 +1308,3918 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Działalność związana z oprogramowaniem i doradztwem w zakresie informatyki oraz działalność powiązana</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7826095433409865</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bardzo dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6477215753807338</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.6214368421311225</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.97436542829956</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.7511848341232228</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.08599316373129233</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.1109630903800758</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.06214368421311225</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.02563457170044007</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.02488151658767773</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Produkcja napojów</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.78123018676098</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Bardzo dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5562276531790011</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7512040416128782</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9832534713280632</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.02501005326790469</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.1505847813252916</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.07512040416128782</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.01674652867193685</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="P17" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Działalność firm centralnych (head offices); działalność doradcza związana z zarządzaniem</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7787917250348401</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Bardzo dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9171930648993462</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5911247769464153</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3041237113402062</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1708847545148795</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.1837042493796526</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1374743305915857</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.4088752230535847</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.06958762886597938</v>
+      </c>
+      <c r="P18" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Zakwaterowanie</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7718261504951739</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Bardzo dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5726162920489207</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.7987280756094881</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.7788710265187495</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.7604790419161677</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1070876310337644</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.00117940077649989</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.07987280756094881</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.2211289734812505</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.02395209580838323</v>
+      </c>
+      <c r="P19" t="n">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Działalność wspomagająca górnictwo</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7716868399487384</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Bardzo dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.379391</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9923973512734567</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5058001913811339</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9769950923609829</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.08059016828655791</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.7543379527192268</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.05058001913811339</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.02300490763901713</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Działalność związana z organizacją podróży, pośrednictwem turystycznym i pokrewnym</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7682847617724899</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Bardzo dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3956262239105915</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9936641792032102</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4505494505494505</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2954590937075441</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.4476157813174809</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.03956262239105916</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.00633582079678983</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.05494505494505494</v>
+      </c>
+      <c r="P21" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Telekomunikacja</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7630428346075978</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Bardzo dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8488070050234041</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6389791706915919</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5364101143734139</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.7129186602870814</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.07017719766195547</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3235719091971527</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.06389791706915919</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.4635898856265861</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.02870813397129187</v>
+      </c>
+      <c r="P22" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Handel hurtowy i detaliczny pojazdami samochodowymi; naprawa pojazdów samochodowych</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7609246643773865</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Bardzo dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1951371455437476</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9859168958625913</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.6200485044462409</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4464015219200823</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.1339498396812589</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.01951371455437476</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.01408310413740865</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.03799514955537591</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Działalność związana z administrowaniem i działalność wspierająca</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7393048045029657</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4849885798549983</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8762422956431487</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.4331065759637188</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.06704588048735342</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.002397960894791562</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.1181006533597549</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.1237577043568513</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.05668934240362812</v>
+      </c>
+      <c r="P24" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Produkcja komputerów, wyrobów elektronicznych i optycznych</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.735557041425039</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5051286697260673</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.434813940236028</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9831287910047939</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8742138364779874</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.02449544438441759</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.1056249139846254</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0434813940236028</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.01687120899520606</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.01257861635220126</v>
+      </c>
+      <c r="P25" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Działalność związana z organizacją imprez kulturalnych i rozrywkowych</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7040106434054325</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.7976387699948247</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8132618315139988</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.9463238973595103</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1174947837396708</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1828853255160006</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.08132618315139988</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0536761026404897</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1205882352941176</v>
+      </c>
+      <c r="P26" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Działalność związana z utrzymaniem porządku w budynkach i zagospodarowaniem terenów zieleni</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7011309738828365</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7371418666666667</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.770149749989617</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.4886220795910198</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9915239574384747</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5735607675906184</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1725924637406682</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.04794984750931888</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.04886220795910198</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.008476042561525312</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.04264392324093817</v>
+      </c>
+      <c r="P27" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Reklama, badanie rynku i opinii publicznej</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7011084245280844</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.4982623207081905</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5389607033272718</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9881393490738609</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.6026490066225165</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.07284549872744205</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.002745091182487368</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.05389607033272718</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.01186065092613912</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.03973509933774835</v>
+      </c>
+      <c r="P28" t="n">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Górnictwo węgla kamiennego</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.6982598444476167</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9217322963174437</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.2609544517810714</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.3339589621911591</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0782677036825563</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Transport lotniczy</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6844618899837769</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9681815</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7818911992563766</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8963156675500104</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0301772534316089</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.4033666333666334</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.07818911992563767</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.1036843324499896</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Działalność pocztowa i kurierska</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.6806509239996805</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.4389258959549618</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.9524382987245875</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.1565943225319242</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.52220226512997</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.04389258959549618</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.04756170127541245</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="P31" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Obrót nieruchomościami</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6801480083253155</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.4927679615494781</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5186986812013643</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.7326718245085514</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.7165775401069518</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0514641460113382</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.04056287337185388</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.05186986812013643</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.2673281754914486</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.02834224598930481</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Nieznany dział</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.6777848614088925</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3068756123798336</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.2681866002981658</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.9828575883620061</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.02203195628926014</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.06787586143667008</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.02681866002981658</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.01714241163799389</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Leśnictwo i pozyskiwanie drewna</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.6757451620053261</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.2160360281643515</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.4983725279127783</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.9974713633319524</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.8622047244094488</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.0609140808257221</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.01626058699936054</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.04983725279127783</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.002528636668047604</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.01377952755905512</v>
+      </c>
+      <c r="P34" t="n">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Produkcja żywności</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.6702269252532447</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.3164709921694684</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.4374077327038703</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.9704315001904389</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.7903145282076884</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.01651444667450939</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.04820500039649723</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.04374077327038704</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.02956849980956115</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.02096854717923115</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Naprawa, konserwacja i instalacja maszyn i urządzeń</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.667794247815844</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.2287386197025261</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.4708863226129261</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.9122699442195555</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.8979591836734694</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.01781561998026972</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.129766482228266</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.04708863226129261</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.08773005578044442</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="P36" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Działalność usługowa w zakresie pośrednictwa finansowego</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.6638142619992713</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.01936780726786924</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.05454545454545456</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2375634787172459</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2.709626655869236</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.2051822614717514</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.9806321927321308</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.09454545454545454</v>
+      </c>
+      <c r="P37" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Budowa obiektów inżynierii lądowej i wodnej</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.6631750324900472</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.08725388079107504</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6184021575354853</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9785443992380697</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.8544973544973545</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.007780028509265511</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.2059114502695015</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.06184021575354853</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0214556007619303</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.01455026455026455</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Produkcja wyrobów z pozostałych surowców niemetalicznych</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.6622237763683315</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1058294333957875</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5839952572492324</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.94506259574374</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.886039886039886</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.03318718195818176</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.1383791460274277</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.05839952572492324</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.05493740425626008</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.0113960113960114</v>
+      </c>
+      <c r="P39" t="n">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Produkcja papieru i wyrobów z papieru</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.6604452997664985</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.1334819330332097</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.5912828233721347</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.930133374798227</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.8464912280701755</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.01569068829484846</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.1484848836804144</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.05912828233721346</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.06986662520177306</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.01535087719298246</v>
+      </c>
+      <c r="P40" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Edukacja</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.6587970569080076</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.3643834333333333</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.8446784806768523</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.6185410362168802</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.9671672837166936</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5298372513562387</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.1912033129869875</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.07780400663519203</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.06185410362168802</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.03283271628330641</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.04701627486437613</v>
+      </c>
+      <c r="P41" t="n">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Nadawanie programów i działalność związana z nadawaniem programów</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6574598026074954</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8636989666666666</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.7298182200520421</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.9250424350916906</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0870241459632541</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.2876080153877071</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.07298182200520421</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.0749575649083094</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Uprawy rolne, chów i hodowla zwierząt, łowiectwo, włączając działalność usługową</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.65351845459627</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.4641716851701232</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9774472471493763</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.9465738924924261</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.007501674646929897</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.1327578659469706</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.09774472471493763</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.05342610750757388</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.1092896174863388</v>
+      </c>
+      <c r="P43" t="n">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Produkcja pozostałego sprzętu transportowego</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.6475110317183754</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.2590026933131058</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.223500250884622</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.9764244637180824</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.957983193277311</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.04687766315706825</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.02685775029593172</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0223500250884622</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.02357553628191754</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.004201680672268907</v>
+      </c>
+      <c r="P44" t="n">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Magazynowanie i działalność usługowa wspomagająca transport</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.643465830485308</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.3716677980599274</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.3897227282913085</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.774215996391235</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.7823596792668958</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.05019500268855027</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.06588898712316593</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.03897227282913085</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.225784003608765</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.02176403207331042</v>
+      </c>
+      <c r="P45" t="n">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Pozostała działalność usługowa</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.636890659734993</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.2282981</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.9415402648999535</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.058289942212557</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.635389631995741</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.1121879222769599</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.05845973510004649</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.1197183098591549</v>
+      </c>
+      <c r="P46" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Produkcja wyrobów z gumy i tworzyw sztucznych</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.6287736157501551</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.5187487497015044</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.9514865390273463</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.911504424778761</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.04986728933117256</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.2384010203851277</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.05187487497015045</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.04851346097265376</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.008849557522123894</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Produkcja wyrobów tekstylnych</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.625709049866095</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.07585107047203175</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.5091227073552925</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.9661449385135233</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.06230398517589253</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.1071260662233864</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.05091227073552925</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.03385506148647666</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P48" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Działalność detektywistyczna i ochroniarska</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.6202703214419156</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.8369194993555507</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.2795838751625488</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9941270175524926</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.03002309468822162</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.07458734633746911</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.3040528567450573</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.02795838751625488</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.005872982447507393</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.09699769053117784</v>
+      </c>
+      <c r="P49" t="n">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Działalność w zakresie architektury i inżynierii; badania i analizy techniczne</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.6201398207687178</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Dobra kondycja</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.2661258083314307</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.3384182524568179</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.9728314546299769</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.04412412237634655</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.1487350172544055</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.03384182524568179</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.02716854537002312</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P50" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Produkcja koksu i produktów rafinacji ropy naftowej</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5973226029288941</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.4656410666666667</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.9612959306370713</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.1733656474566718</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.1733656474566718</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.0387040693629287</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Produkcja pojazdów samochodowych, przyczep i naczep</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5960351023057221</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.3977506696392502</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.9682160109517276</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.8562628336755647</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.03447396493166796</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.3348622784621406</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.03977506696392501</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.03178398904827241</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.01437371663244353</v>
+      </c>
+      <c r="P52" t="n">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Produkcja wyrobów metalowych</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5906147054568168</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.4618184410350795</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.9491637545226734</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.7793822703569996</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.06037632900593584</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.2821674196838557</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.04618184410350794</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.05083624547732662</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.02206177296430004</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Drukowanie i reprodukcja zapisanych nośników informacji</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5858909570682002</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.02263068954306007</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.4462262031976368</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.9524082859344667</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.7406340057636888</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.001111912266095782</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.2818562039434376</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.04462262031976368</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.04759171406553333</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.02593659942363112</v>
+      </c>
+      <c r="P54" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Działalność związana z budową budynków</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.575415224724247</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.07485360021640459</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.6195298730426807</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.9445022844135497</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.4556025369978859</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.02233085593675262</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.1879700479317306</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.06195298730426807</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.05549771558645034</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.05443974630021142</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Dostawa energii elektrycznej, gazu, pary wodnej i gorącej wody</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5724486760506644</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.3516153475658579</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.9720251163802198</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.7816091954022988</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.05177393780760989</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.206000237515587</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.03516153475658579</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.02797488361978019</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.02183908045977011</v>
+      </c>
+      <c r="P56" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Produkcja maszyn i urządzeń, gdzie indziej niesklasyfikowana</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5651717488647164</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.2089224961085841</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.9578081686815256</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.8985801217038539</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.1625953942222764</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.4205270289127666</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.02089224961085841</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.04219183131847441</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.0101419878296146</v>
+      </c>
+      <c r="P57" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Produkcja pozostałych wyrobów</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5620336585391627</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.3962131796381955</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.9577372521927655</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.04200709097601088</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.2300719364630546</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.03962131796381955</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.04226274780723454</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.03043478260869565</v>
+      </c>
+      <c r="P58" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Produkcja drewna i wyrobów z drewna</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.5523150279136595</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.3305863016557246</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.9260427062846016</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.7364568081991215</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.07656936729922277</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.4269425189292951</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.03305863016557246</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.07395729371539841</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.02635431918008785</v>
+      </c>
+      <c r="P59" t="n">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Rybołówstwo i akwakultura</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5505234793614628</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.02592823333333333</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.9689188846319742</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.01592988787214847</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.4115031129558257</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.1007281861314795</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.03108111536802578</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Górnictwo rud metali</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5460199999999999</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.06343333333333333</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Górnictwo ropy naftowej i gazu ziemnego</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5460133333333335</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0634</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Dostawa wody; gospodarowanie ściekami i odpadami oraz działalność związana z rekultywacją</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.538506683709594</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.2491920619702727</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.8848075650110855</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.7797356828193832</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.2074021655431343</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.01514264157314634</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.02491920619702727</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.1151924349889145</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.02202643171806168</v>
+      </c>
+      <c r="P63" t="n">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Przygotowanie terenu pod budowę</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.5368572012948437</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.06160262250171263</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.5729554535144941</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.9837582354724532</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.2965085982282438</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.0359415749022838</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.172674489943891</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.0572955453514494</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.01624176452754679</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.07034914017717561</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Działalność związana ze sportem, rozrywką i rekreacją</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.5333579969771584</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.5135704333333334</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.6807492767973224</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.5316267108545133</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.7312453633054261</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.1127684980769498</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.08713735296369064</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.05316267108545133</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.2687546366945738</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.07777777777777778</v>
+      </c>
+      <c r="P65" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Działalność twórcza związana z kulturą i rozrywką</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5213876593807134</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0.05277193333333333</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.5669115685846609</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.9830063933140968</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.6013434806243688</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.6789946140035906</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.05669115685846609</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.01699360668590319</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="P66" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Produkcja metali</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.521069370073056</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.01277462615432284</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.9387951837063069</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.8884758364312267</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.1008297676932764</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.9199761411540911</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.001277462615432284</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.06120481629369311</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.01115241635687732</v>
+      </c>
+      <c r="P67" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Działalność profesjonalna, naukowa i techniczna, pozostała</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.5185606662769635</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0.4221549666666667</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.62606323743423</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.5414281147374234</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.9477849787361834</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.1358024691358025</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.0980624334465372</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.06733204679773248</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.05414281147374234</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.05221502126381664</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.08641975308641975</v>
+      </c>
+      <c r="P68" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Działalność związana z zatrudnieniem</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.5147120246845927</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.3018253421963957</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.9876620086929331</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5309882747068677</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.07940187869888624</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-0.6369605741187535</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.03018253421963957</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.01233799130706693</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.04690117252931323</v>
+      </c>
+      <c r="P69" t="n">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Produkcja skóry i wyrobów ze skóry</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.502984867765552</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.08524146666666667</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.8981137482473108</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.7560975609756098</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-0.2937439011167733</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.2748243933588761</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.1225935705732445</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.1018862517526892</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="P70" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Działalność weterynaryjna</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.4987055270741184</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0558873</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.3983972032702198</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.2532378097475724</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.9152080287136595</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.07096286380088254</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-0.08336824465856724</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.02532378097475724</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.08479197128634057</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Biblioteki, archiwa, muzea oraz pozostała działalność związana z kulturą</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.4966478994172319</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0.005273366666666667</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.9976485342530177</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.7297297297297297</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-0.9153597112756415</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.3827650013217023</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.820034488164289</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.002351465746982286</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="P72" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Nieznany dział</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.4906937929213254</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0.06882993333333333</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.1849163143817166</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.7638720053860971</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.9235359145871386</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-0.1139410409796676</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.09430676490288011</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.07638720053860971</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.07646408541286139</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="P73" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Budownictwo</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.4884439679809762</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0.6554977333333333</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.1234016835402537</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.8844272307083922</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.149091849911829</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-0.8227501639731197</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.01234016835402537</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.1155727692916078</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Produkcja filmów, nagrań wideo, programów telewizyjnych, nagrań dźwiękowych i muzycznych</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.4868782808086655</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0.3726368</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.5721565357426821</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.652545384951881</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.9253513992174589</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.07068485732215353</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.07357116752410671</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.0652545384951881</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.07464860078254107</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P75" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Handel hurtowy, z wyłączeniem handlu pojazdami samochodowymi</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0.4692326180220856</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="D76" t="n">
+        <v>0.4736710814336156</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>Średnia kondycja</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F76" t="n">
+        <v>0.3203323518</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.208204893015791</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.2164916560792168</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.7442024557391833</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5715195922268238</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.09319450186421147</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-0.5236972994754702</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.02164916560792168</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.2557975442608167</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.04284804077731762</v>
-      </c>
-      <c r="P16" t="n">
-        <v>6278</v>
+      <c r="J76" t="n">
+        <v>0.7877669390983391</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-0.007503966638718034</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-0.097607663008352</v>
+      </c>
+      <c r="M76" t="n">
+        <v>26.99990911033778</v>
+      </c>
+      <c r="N76" t="n">
+        <v>20.75535081568627</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.02122330609016609</v>
+      </c>
+      <c r="P76" t="n">
+        <v>7586</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Działalność związana z grami losowymi i zakładami wzajemnymi</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.4628</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Średnia kondycja</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-0.9857809325148839</v>
+      </c>
+      <c r="L77" t="n">
+        <v>-0.8452671076554098</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Transport lądowy oraz transport rurociągowy</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.4465111975793661</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Słaba kondycja</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.1353955921979743</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.9048558362404499</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.4185185185185185</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.03619046284542712</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-0.6414212203051007</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.01353955921979743</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.09514416375955019</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.05814814814814815</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Produkcja odzieży</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.4435410001998251</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Słaba kondycja</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0.3955766666666667</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.6172170198784295</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.9796168519431211</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.4701986754966887</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-0.03810142364781902</v>
+      </c>
+      <c r="L79" t="n">
+        <v>-0.3214369570321672</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.06172170198784294</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.02038314805687896</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.05298013245033113</v>
+      </c>
+      <c r="P79" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Dzierżawa i najem</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0.4139883836131227</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Słaba kondycja</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.2337295600035808</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.6854846749649706</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.1230603907948886</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.04020016649115645</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-0.1700437289790902</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.06854846749649705</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.8769396092051114</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.1004016064257028</v>
+      </c>
+      <c r="P80" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Pomoc społeczna bez zakwaterowania</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.4131982124038452</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Słaba kondycja</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.1207056333333333</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.6639287170237645</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.1508197426971068</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.9897767566491437</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.02449175339566061</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.2485523385300668</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.01508197426971068</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.01022324335085633</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.07777777777777778</v>
+      </c>
+      <c r="P81" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Pomoc społeczna z zakwaterowaniem</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.3653418722880073</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Słaba kondycja</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0.02580926666666667</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.2039273082083181</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.5015541857647121</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.8139660127964221</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4339622641509434</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.04176728869374314</v>
+      </c>
+      <c r="L82" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.05015541857647121</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.1860339872035778</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="P82" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Naprawa komputerów i artykułów użytku osobistego i domowego</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.3616094945592932</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Słaba kondycja</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0.1635195333333333</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.3040968327998301</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.9944486827582771</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5945945945945945</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-0.2068135172396584</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.09331259720062209</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.03040968327998301</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.005551317241722835</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.04054054054054054</v>
+      </c>
+      <c r="P83" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Działalność organizacji członkowskich</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.3460133333333334</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Słaba kondycja</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0634</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O84" t="n">
+        <v>6</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Transport wodny</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.2649842575285046</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Bardzo słaba kondycja</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0.1844145</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.2290721542787159</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.9485795111517431</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.04618721757835621</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-0.6772782503037668</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.02290721542787159</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.05142048884825694</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P85" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1465,16 +5329,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Działalność związana z oprogramowaniem i doradztwem w zakresie informatyki oraz działalność powiązana</t>
+          <t>Działalność prawnicza i rachunkowo-księgowa</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8843858526175848</v>
+        <v>0.9362491953616454</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1482,37 +5346,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7583019901186923</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9621121066394255</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9693821973673593</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9028352978655623</v>
+        <v>0.7042093287827076</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2431945018642116</v>
+        <v>0.1450077608292372</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06863108864142797</v>
+        <v>0.5868451039606744</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1716491656079217</v>
+        <v>0.1170340941167514</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.03061780263264068</v>
       </c>
       <c r="O2" t="n">
-        <v>0.009716470213443773</v>
+        <v>0.02957906712172924</v>
       </c>
       <c r="P2" t="n">
-        <v>6278</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3">
@@ -1521,16 +5385,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Produkcja komputerów, wyrobów elektronicznych i optycznych</t>
+          <t>Pozostałe górnictwo</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8323343282386255</v>
+        <v>0.9062431091893145</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1538,37 +5402,37 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.7408734377592753</v>
+        <v>0.8148632333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>0.767848851011122</v>
+        <v>0.8849869694384209</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9502436045057541</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9028352978655623</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1931945018642117</v>
+        <v>0.1094052723484628</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.003968783529597565</v>
+        <v>0.2776777277976532</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1416491656079217</v>
+        <v>0.1239545489801882</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.04975639549424593</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009716470213443773</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="P3" t="n">
-        <v>6278</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
@@ -1577,16 +5441,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Produkcja chemikaliów i wyrobów chemicznych</t>
+          <t>Nieznany dział</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8198358809065496</v>
+        <v>0.8990424538364203</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1597,34 +5461,34 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5627997500871161</v>
+        <v>0.8341206912917514</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.8568634777671557</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9202198184966093</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8375278751194648</v>
+        <v>0.9055330634278003</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1431945018642115</v>
+        <v>0.1418810901867126</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.08627591646675513</v>
+        <v>0.1669464417891509</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1116491656079217</v>
+        <v>0.08568634777671556</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.07978018150339072</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01624721248805352</v>
+        <v>0.009446693657219974</v>
       </c>
       <c r="P4" t="n">
-        <v>6278</v>
+        <v>741</v>
       </c>
     </row>
     <row r="5">
@@ -1633,16 +5497,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Działalność usługowa w zakresie pośrednictwa finansowego</t>
+          <t>Działalność usługowa w zakresie informacji</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7993874999339073</v>
+        <v>0.8507097094969378</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1653,34 +5517,34 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4287602879996696</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.9985871074406469</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.8399485867253901</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9028352978655623</v>
+        <v>0.375</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07319450186421145</v>
+        <v>0.2115845905582378</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.06377955129323007</v>
+        <v>1.301683991275471</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1916491656079217</v>
+        <v>0.09985871074406469</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.1600514132746099</v>
       </c>
       <c r="O5" t="n">
-        <v>0.009716470213443773</v>
+        <v>0.0625</v>
       </c>
       <c r="P5" t="n">
-        <v>6278</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
@@ -1689,16 +5553,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Telekomunikacja</t>
+          <t>Produkcja chemikaliów i wyrobów chemicznych</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7584625711106383</v>
+        <v>0.8232362288179966</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1706,37 +5570,37 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.811634025786502</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4679992902742698</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.3269133323681583</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9517171753731375</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8375278751194648</v>
+        <v>0.8254799301919721</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1131945018642115</v>
+        <v>-0.003330345559662663</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.1102540955616483</v>
+        <v>3.501311475409836</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1116491656079217</v>
+        <v>0.03269133323681583</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.04828282462686252</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01624721248805352</v>
+        <v>0.01745200698080279</v>
       </c>
       <c r="P6" t="n">
-        <v>6278</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7">
@@ -1745,54 +5609,54 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Obrót nieruchomościami</t>
+          <t>Opieka zdrowotna</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7299938549176</v>
+        <v>0.8197537361483401</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dobra kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.6291018077923359</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4479042617005716</v>
+        <v>0.8608809258723904</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.4752238392732236</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9266978362163025</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9028352978655623</v>
+        <v>0.8524203069657615</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09319450186421147</v>
+        <v>0.1799190286749177</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08744479812019752</v>
+        <v>0.1149547759353159</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1416491656079217</v>
+        <v>0.04752238392732237</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.0733021637836975</v>
       </c>
       <c r="O7" t="n">
-        <v>0.009716470213443773</v>
+        <v>0.01475796930342385</v>
       </c>
       <c r="P7" t="n">
-        <v>6278</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="8">
@@ -1801,54 +5665,54 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Zakwaterowanie</t>
+          <t>Nieznany dział</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.6896231421778005</v>
+        <v>0.8142897607973636</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dobra kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.544637031010813</v>
+        <v>0.9769931666666666</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5201946189948403</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9164916560792168</v>
+        <v>0.2443362770779035</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.8001591469896642</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7785919082510353</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1431945018642116</v>
+        <v>0.08551594125546395</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1246205344498035</v>
+        <v>2.178095075239398</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09164916560792168</v>
+        <v>0.02443362770779035</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.1998408530103358</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02214080917489646</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>6278</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9">
@@ -1857,54 +5721,54 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Opieka zdrowotna</t>
+          <t>Produkcja podstawowych produktów farmaceutycznych i preparatów farmaceutycznych</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6633207605244239</v>
+        <v>0.8137015293113745</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dobra kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8618313057131551</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3683784461142036</v>
+        <v>0.458662268873219</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7164916560792167</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9598652154519256</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7196559413826059</v>
+        <v>0.7752808988764045</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1131945018642116</v>
+        <v>0.002130764547770225</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.1999128553057081</v>
+        <v>0.1085345128903566</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07164916560792167</v>
+        <v>0.1344736117797094</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.04013478454807444</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02803440586173941</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="P9" t="n">
-        <v>6278</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -1913,54 +5777,54 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Produkcja żywności</t>
+          <t>Działalność wspomagająca usługi finansowe oraz ubezpieczenia i fundusze emerytalne</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.610751908905429</v>
+        <v>0.8103451654320752</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dobra kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.675750156806299</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3069679587637089</v>
+        <v>0.8960765654988528</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7164916560792167</v>
+        <v>0.5463214128665803</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9240013534833826</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7196559413826059</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09319450186421145</v>
+        <v>0.1198532566476747</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.2142874707633739</v>
+        <v>0.2667623956536183</v>
       </c>
       <c r="M10" t="n">
-        <v>0.07164916560792167</v>
+        <v>0.05463214128665803</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.07599864651661734</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02803440586173941</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="P10" t="n">
-        <v>6278</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11">
@@ -1969,54 +5833,54 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Produkcja pojazdów samochodowych, przyczep i naczep</t>
+          <t>Działalność wydawnicza</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5756731035492301</v>
+        <v>0.807529499480647</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Średnia kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.8888243</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2186131686138343</v>
+        <v>0.6827495534834144</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4164916560792168</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.973558485659492</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6304555590952533</v>
+        <v>0.5652173913043479</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1131945018642115</v>
+        <v>0.1015053978155171</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.3347016050560402</v>
+        <v>0.1114638025040388</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04164916560792168</v>
+        <v>0.1267017770779035</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.026441514340508</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03695444409047467</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P11" t="n">
-        <v>6278</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2126,16 +5990,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Działalność związana z oprogramowaniem i doradztwem w zakresie informatyki oraz działalność powiązana</t>
+          <t>Działalność prawnicza i rachunkowo-księgowa</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8843858526175848</v>
+        <v>0.9362491953616454</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2143,55 +6007,55 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7583019901186923</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9621121066394255</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9693821973673593</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9028352978655623</v>
+        <v>0.7042093287827076</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2431945018642116</v>
+        <v>0.1450077608292372</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06863108864142797</v>
+        <v>0.5868451039606744</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1716491656079217</v>
+        <v>0.1170340941167514</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.03061780263264068</v>
       </c>
       <c r="O2" t="n">
-        <v>0.009716470213443773</v>
+        <v>0.02957906712172924</v>
       </c>
       <c r="P2" t="n">
-        <v>6278</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Produkcja komputerów, wyrobów elektronicznych i optycznych</t>
+          <t>Działalność usługowa w zakresie informacji</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8323343282386255</v>
+        <v>0.8507097094969378</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2199,42 +6063,42 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.7408734377592753</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.767848851011122</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.9985871074406469</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.8399485867253901</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9028352978655623</v>
+        <v>0.375</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1931945018642117</v>
+        <v>0.2115845905582378</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.003968783529597565</v>
+        <v>1.301683991275471</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1416491656079217</v>
+        <v>0.09985871074406469</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.1600514132746099</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009716470213443773</v>
+        <v>0.0625</v>
       </c>
       <c r="P3" t="n">
-        <v>6278</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2247,7 +6111,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8198358809065496</v>
+        <v>0.8232362288179966</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2258,34 +6122,34 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5627997500871161</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.3269133323681583</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9517171753731375</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8375278751194648</v>
+        <v>0.8254799301919721</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1431945018642115</v>
+        <v>-0.003330345559662663</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.08627591646675513</v>
+        <v>3.501311475409836</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1116491656079217</v>
+        <v>0.03269133323681583</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.04828282462686252</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01624721248805352</v>
+        <v>0.01745200698080279</v>
       </c>
       <c r="P4" t="n">
-        <v>6278</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5">
@@ -2294,72 +6158,72 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Zakwaterowanie</t>
+          <t>Nieznany dział</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6896231421778005</v>
+        <v>0.8142897607973636</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dobra kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.544637031010813</v>
+        <v>0.9769931666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5201946189948403</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9164916560792168</v>
+        <v>0.2443362770779035</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.8001591469896642</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7785919082510353</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1431945018642116</v>
+        <v>0.08551594125546395</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1246205344498035</v>
+        <v>2.178095075239398</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09164916560792168</v>
+        <v>0.02443362770779035</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.1998408530103358</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02214080917489646</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>6278</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Telekomunikacja</t>
+          <t>Badania naukowe i prace rozwojowe</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7584625711106383</v>
+        <v>0.805733677743704</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2367,111 +6231,111 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.811634025786502</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4679992902742698</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.3059693068409141</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9721457843838165</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8375278751194648</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1131945018642115</v>
+        <v>0.118154888519928</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.1102540955616483</v>
+        <v>0.6082093181597122</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1116491656079217</v>
+        <v>0.03059693068409141</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.02785421561618356</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01624721248805352</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P6" t="n">
-        <v>6278</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Obrót nieruchomościami</t>
+          <t>Handel detaliczny, z wyłączeniem handlu pojazdami samochodowymi</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7299938549176</v>
+        <v>0.7854569412245687</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dobra kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.6291018077923359</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4479042617005716</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.2976459839424445</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9803830103270028</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9028352978655623</v>
+        <v>0.6443514644351465</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09319450186421147</v>
+        <v>1.079660056528038</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08744479812019752</v>
+        <v>0.7661365522652582</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1416491656079217</v>
+        <v>0.02976459839424445</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.0196169896729972</v>
       </c>
       <c r="O7" t="n">
-        <v>0.009716470213443773</v>
+        <v>0.03556485355648536</v>
       </c>
       <c r="P7" t="n">
-        <v>6278</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Działalność usługowa w zakresie pośrednictwa finansowego</t>
+          <t>Działalność związana z organizacją podróży, pośrednictwem turystycznym i pokrewnym</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.7993874999339073</v>
+        <v>0.7682847617724899</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2482,108 +6346,108 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4287602879996696</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.3956262239105915</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9936641792032102</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9028352978655623</v>
+        <v>0.4505494505494505</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07319450186421145</v>
+        <v>0.2954590937075441</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.06377955129323007</v>
+        <v>0.4476157813174809</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1916491656079217</v>
+        <v>0.03956262239105916</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.00633582079678983</v>
       </c>
       <c r="O8" t="n">
-        <v>0.009716470213443773</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="P8" t="n">
-        <v>6278</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Opieka zdrowotna</t>
+          <t>Handel hurtowy i detaliczny pojazdami samochodowymi; naprawa pojazdów samochodowych</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6633207605244239</v>
+        <v>0.7609246643773865</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dobra kondycja</t>
+          <t>Bardzo dobra kondycja</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8618313057131551</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3683784461142036</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7164916560792167</v>
+        <v>0.1951371455437476</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9859168958625913</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7196559413826059</v>
+        <v>0.6200485044462409</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1131945018642116</v>
+        <v>0.4464015219200823</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.1999128553057081</v>
+        <v>0.1339498396812589</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07164916560792167</v>
+        <v>0.01951371455437476</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.01408310413740865</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02803440586173941</v>
+        <v>0.03799514955537591</v>
       </c>
       <c r="P9" t="n">
-        <v>6278</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Produkcja żywności</t>
+          <t>Działalność pocztowa i kurierska</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.610751908905429</v>
+        <v>0.6806509239996805</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -2591,93 +6455,93 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.675750156806299</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3069679587637089</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7164916560792167</v>
+        <v>0.4389258959549618</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9524382987245875</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7196559413826059</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09319450186421145</v>
+        <v>0.1565943225319242</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.2142874707633739</v>
+        <v>1.52220226512997</v>
       </c>
       <c r="M10" t="n">
-        <v>0.07164916560792167</v>
+        <v>0.04389258959549618</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.04756170127541245</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02803440586173941</v>
+        <v>0.28125</v>
       </c>
       <c r="P10" t="n">
-        <v>6278</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Budownictwo</t>
+          <t>Działalność usługowa w zakresie pośrednictwa finansowego</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5720109735367547</v>
+        <v>0.6638142619992713</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Średnia kondycja</t>
+          <t>Dobra kondycja</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3069018897235375</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3164916560792168</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.01936780726786924</v>
       </c>
       <c r="J11" t="n">
-        <v>0.601784007645747</v>
+        <v>0.05454545454545456</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1731945018642115</v>
+        <v>0.2375634787172459</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.3779262255306445</v>
+        <v>2.709626655869236</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03164916560792168</v>
+        <v>0.2051822614717514</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.9806321927321308</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0398215992354253</v>
+        <v>0.09454545454545454</v>
       </c>
       <c r="P11" t="n">
-        <v>6278</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2783,244 +6647,244 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Handel hurtowy, z wyłączeniem handlu pojazdami samochodowymi</t>
+          <t>Działalność związana z organizacją imprez kulturalnych i rozrywkowych</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4692326180220856</v>
+        <v>0.7040106434054325</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Średnia kondycja</t>
+          <t>Dobra kondycja</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
+        <v>0.7976387699948247</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8132618315139988</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9463238973595103</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.2164916560792168</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.7442024557391833</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5715195922268238</v>
-      </c>
       <c r="K2" t="n">
-        <v>0.09319450186421147</v>
+        <v>0.1174947837396708</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.5236972994754702</v>
+        <v>0.1828853255160006</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02164916560792168</v>
+        <v>0.08132618315139988</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.0536761026404897</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04284804077731762</v>
+        <v>0.1205882352941176</v>
       </c>
       <c r="P2" t="n">
-        <v>6278</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Budownictwo</t>
+          <t>Działalność pocztowa i kurierska</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5720109735367547</v>
+        <v>0.6806509239996805</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Średnia kondycja</t>
+          <t>Dobra kondycja</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3069018897235375</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3164916560792168</v>
+        <v>0.4389258959549618</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9524382987245875</v>
       </c>
       <c r="J3" t="n">
-        <v>0.601784007645747</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1731945018642115</v>
+        <v>0.1565943225319242</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.3779262255306445</v>
+        <v>1.52220226512997</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03164916560792168</v>
+        <v>0.04389258959549618</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.04756170127541245</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0398215992354253</v>
+        <v>0.28125</v>
       </c>
       <c r="P3" t="n">
-        <v>6278</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Handel detaliczny, z wyłączeniem handlu pojazdami samochodowymi</t>
+          <t>Uprawy rolne, chów i hodowla zwierząt, łowiectwo, włączając działalność usługową</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4895256561461098</v>
+        <v>0.65351845459627</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Średnia kondycja</t>
+          <t>Dobra kondycja</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9452095810100009</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02079295535295756</v>
+        <v>0.4641716851701232</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3164916560792168</v>
+        <v>0.9774472471493763</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9465738924924261</v>
       </c>
       <c r="J4" t="n">
-        <v>0.601784007645747</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07319450186421156</v>
+        <v>-0.007501674646929897</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.4309501506752711</v>
+        <v>0.1327578659469706</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03164916560792168</v>
+        <v>0.09774472471493763</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.05342610750757388</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0398215992354253</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="P4" t="n">
-        <v>6278</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Produkcja pojazdów samochodowych, przyczep i naczep</t>
+          <t>Pozostała działalność usługowa</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5756731035492301</v>
+        <v>0.636890659734993</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Średnia kondycja</t>
+          <t>Dobra kondycja</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.2282981</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2186131686138343</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4164916560792168</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9415402648999535</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6304555590952533</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1131945018642115</v>
+        <v>2.058289942212557</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.3347016050560402</v>
+        <v>1.635389631995741</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04164916560792168</v>
+        <v>0.1121879222769599</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.05845973510004649</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03695444409047467</v>
+        <v>0.1197183098591549</v>
       </c>
       <c r="P5" t="n">
-        <v>6278</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Transport lądowy oraz transport rurociągowy</t>
+          <t>Działalność twórcza związana z kulturą i rozrywką</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5054728653100834</v>
+        <v>0.5213876593807134</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -3028,55 +6892,55 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.7223985058202623</v>
+        <v>0.05277193333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1598934110010375</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4164916560792168</v>
+        <v>0.5669115685846609</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9830063933140968</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6304555590952533</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09319450186421158</v>
+        <v>0.6013434806243688</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.3466545637497782</v>
+        <v>0.6789946140035906</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04164916560792168</v>
+        <v>0.05669115685846609</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.01699360668590319</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03695444409047467</v>
+        <v>0.6875</v>
       </c>
       <c r="P6" t="n">
-        <v>6278</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Produkcja wyrobów metalowych</t>
+          <t>Produkcja filmów, nagrań wideo, programów telewizyjnych, nagrań dźwiękowych i muzycznych</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5331690050001444</v>
+        <v>0.4868782808086655</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -3084,167 +6948,167 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.7287557826737262</v>
+        <v>0.3726368</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1613806159433721</v>
+        <v>0.5721565357426821</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5164916560792168</v>
+        <v>0.652545384951881</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9253513992174589</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6607199745141765</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07319450186421145</v>
+        <v>0.07068485732215353</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.3044212561438979</v>
+        <v>0.07357116752410671</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05164916560792168</v>
+        <v>0.0652545384951881</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.07464860078254107</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03392800254858235</v>
+        <v>0.1</v>
       </c>
       <c r="P7" t="n">
-        <v>6278</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Opieka zdrowotna</t>
+          <t>Dzierżawa i najem</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.6633207605244239</v>
+        <v>0.4139883836131227</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dobra kondycja</t>
+          <t>Słaba kondycja</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8618313057131551</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3683784461142036</v>
+        <v>0.2337295600035808</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7164916560792167</v>
+        <v>0.6854846749649706</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.1230603907948886</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7196559413826059</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1131945018642116</v>
+        <v>0.04020016649115645</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1999128553057081</v>
+        <v>-0.1700437289790902</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07164916560792167</v>
+        <v>0.06854846749649705</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.8769396092051114</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02803440586173941</v>
+        <v>0.1004016064257028</v>
       </c>
       <c r="P8" t="n">
-        <v>6278</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Produkcja żywności</t>
+          <t>Działalność organizacji członkowskich</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.610751908905429</v>
+        <v>0.3460133333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dobra kondycja</t>
+          <t>Słaba kondycja</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.675750156806299</v>
+        <v>0.0634</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3069679587637089</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7164916560792167</v>
+        <v>0.8</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.6</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7196559413826059</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09319450186421145</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.2142874707633739</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07164916560792167</v>
+        <v>0.08</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.4</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02803440586173941</v>
+        <v>6</v>
       </c>
       <c r="P9" t="n">
-        <v>6278</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Zakwaterowanie</t>
+          <t>Działalność detektywistyczna i ochroniarska</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6896231421778005</v>
+        <v>0.6202703214419156</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3252,93 +7116,93 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.544637031010813</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5201946189948403</v>
+        <v>0.8369194993555507</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9164916560792168</v>
+        <v>0.2795838751625488</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.9941270175524926</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7785919082510353</v>
+        <v>0.03002309468822162</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1431945018642116</v>
+        <v>0.07458734633746911</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1246205344498035</v>
+        <v>0.3040528567450573</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09164916560792168</v>
+        <v>0.02795838751625488</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.005872982447507393</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02214080917489646</v>
+        <v>0.09699769053117784</v>
       </c>
       <c r="P10" t="n">
-        <v>6278</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Produkcja chemikaliów i wyrobów chemicznych</t>
+          <t>Działalność usługowa w zakresie pośrednictwa finansowego</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8198358809065496</v>
+        <v>0.6638142619992713</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bardzo dobra kondycja</t>
+          <t>Dobra kondycja</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5627997500871161</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7442024557391833</v>
+        <v>0.01936780726786924</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8375278751194648</v>
+        <v>0.05454545454545456</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1431945018642115</v>
+        <v>0.2375634787172459</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.08627591646675513</v>
+        <v>2.709626655869236</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1116491656079217</v>
+        <v>0.2051822614717514</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2557975442608167</v>
+        <v>0.9806321927321308</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01624721248805352</v>
+        <v>0.09454545454545454</v>
       </c>
       <c r="P11" t="n">
-        <v>6278</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
